--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\DWSIM-EnzymeML-KG\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE1E26-9640-41F4-84DD-1F8C0B54D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
   <si>
     <t>Laccase</t>
   </si>
@@ -138,9 +137,6 @@
     <t>hasChao_SeaderLiquidMolarVolume</t>
   </si>
   <si>
-    <t>hasCriticalTemperature_Unit</t>
-  </si>
-  <si>
     <t>hasCriticalPressure_Unit</t>
   </si>
   <si>
@@ -498,9 +494,6 @@
     <t>EntersAtObject</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>Reactor</t>
   </si>
   <si>
@@ -577,12 +570,27 @@
   </si>
   <si>
     <t>baseCompound</t>
+  </si>
+  <si>
+    <t>hasTemperature_Unit</t>
+  </si>
+  <si>
+    <t>hasTemperature</t>
+  </si>
+  <si>
+    <t>hasTemperatureUnit</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -612,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +633,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -819,17 +833,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -858,9 +861,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,13 +936,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1253,14 +1254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1268,21 +1269,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>100</v>
+      <c r="A2" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1294,11 +1295,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>179</v>
+      <c r="A3" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1317,8 +1317,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>109</v>
+      <c r="A4" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1337,8 +1337,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
+      <c r="A5" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1357,8 +1357,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
+      <c r="A6" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1377,27 +1377,27 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>169</v>
+      <c r="A7" s="41" t="s">
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1417,144 +1417,144 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>168</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="B16" s="2">
         <v>1.212</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>171</v>
+      <c r="A17" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>172</v>
+      <c r="A18" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="B18" s="2">
         <v>1.986</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>173</v>
+      <c r="A19" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>105</v>
+      <c r="A20" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>106</v>
+      <c r="A21" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>177</v>
+      <c r="A22" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>181</v>
+      <c r="A23" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1566,13 +1566,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8 B20:B21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1585,14 +1585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -1602,20 +1602,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
-        <v>153</v>
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>179</v>
+      <c r="A2" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1626,24 +1626,24 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4">
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4">
@@ -1685,21 +1685,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4">
@@ -1713,49 +1713,49 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4">
@@ -1769,7 +1769,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="6">
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4">
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4">
@@ -1825,7 +1825,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="4">
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="4">
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="4">
@@ -1867,7 +1867,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="4">
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="4">
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="4">
@@ -1909,22 +1909,22 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -1937,8 +1937,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>43</v>
+      <c r="A25" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>12</v>
@@ -1951,8 +1951,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>44</v>
+      <c r="A26" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
@@ -1965,8 +1965,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>45</v>
+      <c r="A27" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -1979,8 +1979,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>46</v>
+      <c r="A28" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
@@ -1993,8 +1993,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>47</v>
+      <c r="A29" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
@@ -2007,8 +2007,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>48</v>
+      <c r="A30" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
@@ -2021,8 +2021,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>49</v>
+      <c r="A31" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
@@ -2041,30 +2041,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>179</v>
+      <c r="A2" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2077,78 +2077,78 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>56</v>
+      <c r="B6" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>55</v>
+      <c r="B7" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
+      <c r="A8" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -2161,73 +2161,73 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2236,126 +2236,127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>113</v>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>113</v>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>156</v>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>116</v>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>156</v>
+      <c r="D8" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2364,34 +2365,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>100</v>
+      <c r="A2" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2405,8 +2406,8 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>179</v>
+      <c r="A3" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2425,8 +2426,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
+      <c r="A4" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="3">
         <v>9.6666666666666705E-10</v>
@@ -2440,33 +2441,33 @@
       <c r="E4" s="3">
         <v>1.6549999999999999E-7</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>4.6243132629629627E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
+      <c r="A6" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2485,41 +2486,77 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>154</v>
+      <c r="A8" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2528,140 +2565,140 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>162</v>
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
+      <c r="A2" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B2" s="4">
         <v>101325</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>76</v>
+      <c r="A3" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="16">
+        <v>120</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="17">
-        <v>120</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="16">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
+      <c r="A7" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>101</v>
+      <c r="A8" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B10" s="4">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>79</v>
+      <c r="A11" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
+      <c r="A12" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="B12" s="4">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>87</v>
+      <c r="A13" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>102</v>
+      <c r="A14" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>160</v>
+      <c r="A15" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2707,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2683,388 +2720,388 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="29">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="18">
-        <v>0</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="29">
+        <v>3</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="29">
+        <v>5</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="29">
+        <v>6</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="29">
+        <v>7</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="29">
+        <v>8</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="29">
+        <v>9</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="29">
+        <v>10</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="29">
+        <v>11</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="29">
+        <v>12</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="29">
+        <v>13</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="29">
+        <v>14</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="29">
+        <v>15</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="29">
+        <v>16</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="29">
+        <v>17</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="29">
+        <v>18</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="29">
+        <v>19</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="29">
+        <v>20</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="29">
+        <v>21</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="29">
+        <v>22</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="29">
+        <v>23</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="29">
+        <v>24</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="29">
+        <v>25</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="29">
+        <v>26</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="29">
+        <v>27</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="20">
-        <v>2</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="30">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="20">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="30">
-        <v>2</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="30">
-        <v>3</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="30">
-        <v>4</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="30">
-        <v>5</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="30">
-        <v>6</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="30">
-        <v>7</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="30">
-        <v>8</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="30">
-        <v>9</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="30">
-        <v>10</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="30">
-        <v>11</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="30">
-        <v>12</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="30">
-        <v>13</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="30">
-        <v>14</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="30">
-        <v>15</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="30">
-        <v>16</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="30">
-        <v>17</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="30">
-        <v>18</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="30">
-        <v>19</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="30">
-        <v>20</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="30">
-        <v>21</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="30">
-        <v>22</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="30">
-        <v>23</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="30">
-        <v>24</v>
-      </c>
-      <c r="G26" s="31" t="s">
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="29">
+        <v>28</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="30">
-        <v>25</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="30">
-        <v>26</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="30">
-        <v>27</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="30">
-        <v>28</v>
-      </c>
-      <c r="G30" s="31" t="s">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="29">
+        <v>29</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="30">
-        <v>29</v>
-      </c>
-      <c r="G31" s="31" t="s">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="29">
+        <v>30</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="30">
-        <v>30</v>
-      </c>
-      <c r="G32" s="31" t="s">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="29">
+        <v>31</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="30">
-        <v>31</v>
-      </c>
-      <c r="G33" s="31" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="29">
+        <v>32</v>
+      </c>
+      <c r="G34" s="30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="30">
-        <v>32</v>
-      </c>
-      <c r="G34" s="31" t="s">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="29">
+        <v>33</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="30">
-        <v>33</v>
-      </c>
-      <c r="G35" s="31" t="s">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="29">
+        <v>34</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="30">
-        <v>34</v>
-      </c>
-      <c r="G36" s="31" t="s">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="29">
+        <v>35</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="30">
-        <v>35</v>
-      </c>
-      <c r="G37" s="31" t="s">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="29">
+        <v>36</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="30">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>Object</t>
+    <t>object</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2045,7 +2045,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,9 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
   <si>
     <t>Laccase</t>
   </si>
@@ -320,9 +320,6 @@
     <t>RCT_Conversion</t>
   </si>
   <si>
-    <t>hasVolumetricFlow</t>
-  </si>
-  <si>
     <t>hasVolumetricFlowUnit</t>
   </si>
   <si>
@@ -584,7 +581,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>object</t>
+    <t>overallVolumetricFlow</t>
+  </si>
+  <si>
+    <t>Object-name</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1378,22 +1378,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="13"/>
@@ -1430,10 +1430,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="13"/>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="37"/>
       <c r="E13" s="37"/>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2">
         <v>1.212</v>
@@ -1506,15 +1506,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2">
         <v>1.986</v>
@@ -1522,15 +1522,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1609,13 +1609,13 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -2237,9 +2237,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2247,79 +2249,99 @@
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.3333333333333299E-8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
@@ -2328,33 +2350,33 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2389,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,10 +2409,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2405,7 +2427,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2465,7 +2487,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2485,45 +2507,45 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1">
         <v>38</v>
@@ -2541,20 +2563,20 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +2603,7 @@
         <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2637,7 +2659,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -2680,12 +2702,12 @@
         <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -2693,10 +2715,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2750,10 +2772,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,7 +2783,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>94</v>
@@ -2776,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>93</v>
@@ -2793,19 +2815,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="29">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>92</v>
@@ -2814,13 +2836,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="29">
         <v>2</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2835,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2843,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,7 +2873,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2859,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,7 +2897,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,7 +2905,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2907,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2937,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2923,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2931,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2961,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2947,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2955,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2963,7 +2985,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2971,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2979,7 +3001,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2987,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3025,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -3035,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -3043,7 +3065,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -3051,7 +3073,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -3059,7 +3081,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -3067,7 +3089,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -3075,7 +3097,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -3083,7 +3105,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -3091,7 +3113,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3099,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties for JSON-file" sheetId="2" r:id="rId2"/>
-    <sheet name="Additional Info (Units)" sheetId="3" r:id="rId3"/>
+    <sheet name="Additional Info (Units)" sheetId="3" r:id="rId2"/>
+    <sheet name="Properties for JSON-file" sheetId="2" r:id="rId3"/>
     <sheet name="PFD" sheetId="6" r:id="rId4"/>
     <sheet name="Material Streams" sheetId="7" r:id="rId5"/>
     <sheet name="Reactor Specification" sheetId="4" r:id="rId6"/>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F8" sqref="A4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1565,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
@@ -1586,6 +1586,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2040,207 +2235,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2389,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\DWSIM-EnzymeML-KG\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DWSIM-EnzymeML-KG\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF866B-539C-41AD-9F5C-77D794D3E6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
   <si>
     <t>Laccase</t>
   </si>
@@ -585,12 +586,18 @@
   </si>
   <si>
     <t>Object-name</t>
+  </si>
+  <si>
+    <t>has_equation</t>
+  </si>
+  <si>
+    <t>p1*kcat*s1 / (Km+s1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -640,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -835,11 +842,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,9 +959,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1254,14 +1273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="A4:F8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1560,19 +1579,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8 B20:B21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1585,14 +1612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -1780,14 +1807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -2236,14 +2263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -2385,14 +2412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2585,14 +2612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2727,7 +2754,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2740,14 +2767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DWSIM-EnzymeML-KG\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\DWSIM-EnzymeML-KG\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF866B-539C-41AD-9F5C-77D794D3E6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
   <si>
     <t>Laccase</t>
   </si>
@@ -591,13 +590,16 @@
     <t>has_equation</t>
   </si>
   <si>
-    <t>p1*kcat*s1 / (Km+s1)</t>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>p1*kcat*s0 / (Km+s0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -962,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1273,21 +1275,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1297,12 +1299,12 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1315,7 +1317,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>176</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>107</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>64</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>166</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>165</v>
       </c>
@@ -1447,7 +1449,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>173</v>
       </c>
@@ -1459,13 +1461,13 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="37"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>108</v>
       </c>
@@ -1475,7 +1477,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>176</v>
       </c>
@@ -1486,7 +1488,7 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>98</v>
       </c>
@@ -1499,7 +1501,7 @@
       <c r="F14" s="13"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>177</v>
       </c>
@@ -1511,7 +1513,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>167</v>
       </c>
@@ -1523,7 +1525,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>168</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>169</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>1.986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>170</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>103</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>104</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>174</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>178</v>
       </c>
@@ -1579,12 +1581,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1593,13 +1595,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8 B20:B21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1612,20 +1614,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
@@ -1633,7 +1635,7 @@
       <c r="C1" s="34"/>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>176</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>20</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>179</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>35</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
@@ -1807,23 +1809,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="8"/>
+    <col min="1" max="1" width="45.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
@@ -1835,7 +1837,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>176</v>
       </c>
@@ -1850,7 +1852,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>375.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>16</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>-4356</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>19</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>22</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>647.14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>26</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>22064000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>5.595E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>28</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2062,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>30</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>31</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>32</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>33</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>1.14199E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>40</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>42</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>44</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>45</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>46</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>47</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>48</v>
       </c>
@@ -2263,24 +2265,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>184</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -2392,7 +2394,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -2412,19 +2414,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -2434,7 +2436,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
@@ -2452,7 +2454,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>176</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>72</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>4.6243132629629627E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>73</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>183</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>96</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>152</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>180</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>181</v>
       </c>
@@ -2612,20 +2614,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -2633,7 +2635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>79</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>101325</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>75</v>
       </c>
@@ -2650,7 +2652,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2661,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>81</v>
       </c>
@@ -2668,7 +2670,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>89</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>88</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>99</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>76</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>77</v>
       </c>
@@ -2708,7 +2710,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>78</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>85</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>86</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>100</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>157</v>
       </c>
@@ -2754,7 +2756,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2767,22 +2769,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>82</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>164</v>
@@ -2872,7 +2874,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
         <v>69</v>
@@ -2887,7 +2889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="29">
         <v>4</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" s="29">
         <v>5</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="29">
         <v>6</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="29">
         <v>7</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="29">
         <v>8</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="29">
         <v>9</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="29">
         <v>10</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="29">
         <v>11</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="29">
         <v>12</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="29">
         <v>13</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="29">
         <v>14</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="29">
         <v>15</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="29">
         <v>16</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="29">
         <v>17</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="29">
         <v>18</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="29">
         <v>19</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="29">
         <v>20</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="29">
         <v>21</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="29">
         <v>22</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="29">
         <v>23</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" s="29">
         <v>24</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="29">
         <v>25</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" s="29">
         <v>26</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F29" s="29">
         <v>27</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="29">
         <v>28</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31" s="29">
         <v>29</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32" s="29">
         <v>30</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="29">
         <v>31</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="29">
         <v>32</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="29">
         <v>33</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36" s="29">
         <v>34</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37" s="29">
         <v>35</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38" s="29">
         <v>36</v>
       </c>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
   <si>
     <t>Laccase</t>
   </si>
@@ -590,10 +590,7 @@
     <t>has_equation</t>
   </si>
   <si>
-    <t>p0</t>
-  </si>
-  <si>
-    <t>p1*kcat*s0 / (Km+s0)</t>
+    <t>p2*kcat*s0 / (Km+s0)</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1301,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1586,7 +1583,7 @@
         <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -1275,18 +1275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>176</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>107</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>64</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>166</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>165</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>173</v>
       </c>
@@ -1458,13 +1458,13 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="37"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>108</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>176</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>98</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="F14" s="13"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>177</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>167</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>168</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>169</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1.986</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>170</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>103</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>104</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>174</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>178</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>185</v>
       </c>
@@ -1618,13 +1618,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="C1" s="34"/>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>176</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>24</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>179</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>35</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>38</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
@@ -1809,20 +1809,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="8"/>
+    <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>176</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>375.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>-4356</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>19</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>22</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>25</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>647.14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>15</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>26</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>22064000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>5.595E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>28</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>31</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>32</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>33</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1.14199E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>40</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>41</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>42</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>45</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>46</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>47</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>48</v>
       </c>
@@ -2269,17 +2269,17 @@
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>184</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -2418,12 +2418,12 @@
       <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>176</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>72</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>4.6243132629629627E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>73</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>183</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>96</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>152</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>180</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>181</v>
       </c>
@@ -2618,13 +2618,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>79</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>101325</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>75</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>80</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>81</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>89</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>88</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>99</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>76</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>77</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>78</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>85</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>86</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>100</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>157</v>
       </c>
@@ -2773,15 +2773,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>82</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>164</v>
@@ -2871,7 +2871,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
         <v>69</v>
@@ -2886,7 +2886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="29">
         <v>4</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="29">
         <v>5</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="29">
         <v>6</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="29">
         <v>7</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="29">
         <v>8</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="29">
         <v>9</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="29">
         <v>10</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="29">
         <v>11</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="29">
         <v>12</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="29">
         <v>13</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="29">
         <v>14</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="29">
         <v>15</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="29">
         <v>16</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="29">
         <v>17</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="29">
         <v>18</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="29">
         <v>19</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="29">
         <v>20</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="29">
         <v>21</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="29">
         <v>22</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="29">
         <v>23</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="29">
         <v>24</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="29">
         <v>25</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="29">
         <v>26</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="29">
         <v>27</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="29">
         <v>28</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="29">
         <v>29</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="29">
         <v>30</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="29">
         <v>31</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="29">
         <v>32</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="29">
         <v>33</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="29">
         <v>34</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="29">
         <v>35</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="29">
         <v>36</v>
       </c>

--- a/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/ELNs/New-ELN_Kinetik_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2415,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D8"/>
+      <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
